--- a/output/2016-11-01 to 2016-12-01.xlsx
+++ b/output/2016-11-01 to 2016-12-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -77,7 +77,7 @@
     <t>['cfop_NH']</t>
   </si>
   <si>
-    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
   </si>
   <si>
     <t>unit(accumulative)</t>
@@ -92,6 +92,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-11-105-01</t>
   </si>
   <si>
@@ -108,6 +111,24 @@
   </si>
   <si>
     <t>2016-08-100-01</t>
+  </si>
+  <si>
+    <t>['Hunter Young', 'Harshal Maske']</t>
+  </si>
+  <si>
+    <t>['Usman syed', 'Usman Syed']</t>
+  </si>
+  <si>
+    <t>['Arun Lakshmanan', 'Mitchell Jones']</t>
+  </si>
+  <si>
+    <t>['Harshal Maske']</t>
+  </si>
+  <si>
+    <t>['Jonathan Hoff']</t>
+  </si>
+  <si>
+    <t>['Sheng Shen']</t>
   </si>
   <si>
     <t>cfop_GC</t>
@@ -765,13 +786,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -781,13 +802,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>34</v>
@@ -795,13 +819,16 @@
       <c r="D2">
         <v>32.53588516746412</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>29</v>
@@ -809,13 +836,16 @@
       <c r="D3">
         <v>27.7511961722488</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -823,13 +853,16 @@
       <c r="D4">
         <v>13.39712918660287</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>13.5</v>
@@ -837,13 +870,16 @@
       <c r="D5">
         <v>12.91866028708134</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -851,19 +887,25 @@
       <c r="D6">
         <v>9.569377990430622</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
         <v>3.827751196172249</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>95</v>
@@ -909,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>78</v>
@@ -923,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -937,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -951,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>4</v>
